--- a/results/switching RRF values.xlsx
+++ b/results/switching RRF values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/j_j_teijema_uu_nl/Documents/Research/Mega-Meta paper simulations/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AADB0CFB-CE38-43F0-A562-0F6D5F43F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE5B806-7ECD-476A-89A8-EC3CA7F87CE6}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{AADB0CFB-CE38-43F0-A562-0F6D5F43F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481A957A-2456-47DF-968D-9E8E36E71C81}"/>
   <bookViews>
     <workbookView xWindow="14580" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E7B23F-9B7A-4A47-8B2D-BFDD78A65E8F}"/>
   </bookViews>
@@ -75,19 +75,19 @@
     <t>LR + doc2vec</t>
   </si>
   <si>
-    <t>Original simulation</t>
-  </si>
-  <si>
-    <t>NB simulation</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>LR simulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">RRF@2.8%: </t>
+  </si>
+  <si>
+    <t>Study 3 simulations</t>
+  </si>
+  <si>
+    <t>NB + TF-IDF combined with:</t>
+  </si>
+  <si>
+    <t>LR + SBERT combined with:</t>
   </si>
 </sst>
 </file>
@@ -95,19 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,8 +113,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,7 +130,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,29 +168,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -246,11 +257,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FE56E4C0-AA1C-451A-9935-20920CC52481}" name="Original simulation"/>
-    <tableColumn id="2" xr3:uid="{EC595787-08FA-4B1E-AD27-8B9CBBF9329A}" name="RRF@1%: " dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F264BE75-8D5F-4A6A-9090-26918BDA6451}" name="RRF@1.5%: " dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7B880219-5ED2-4ECD-B498-F904F64D4429}" name="RRF@2%: " dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2EADC0EB-FDB5-4759-B1AC-4F1960F86893}" name="RRF@2.8%: " dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{FE56E4C0-AA1C-451A-9935-20920CC52481}" name="Study 3 simulations"/>
+    <tableColumn id="2" xr3:uid="{EC595787-08FA-4B1E-AD27-8B9CBBF9329A}" name="RRF@1%: " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F264BE75-8D5F-4A6A-9090-26918BDA6451}" name="RRF@1.5%: " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7B880219-5ED2-4ECD-B498-F904F64D4429}" name="RRF@2%: " dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2EADC0EB-FDB5-4759-B1AC-4F1960F86893}" name="RRF@2.8%: " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -266,17 +277,17 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5B6FB3BC-03B8-4FB8-A439-F5C604C17A8F}" name="NB simulation"/>
-    <tableColumn id="2" xr3:uid="{58B3F117-2153-4C61-8B4A-F3B831F29A00}" name="RRF@1%: " dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5B6FB3BC-03B8-4FB8-A439-F5C604C17A8F}" name="NB + TF-IDF combined with:"/>
+    <tableColumn id="2" xr3:uid="{58B3F117-2153-4C61-8B4A-F3B831F29A00}" name="RRF@1%: " dataDxfId="11">
       <calculatedColumnFormula>H13+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{46C48341-5C0B-4725-9F6F-8E7EDF4DC539}" name="RRF@1.5%: " dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{46C48341-5C0B-4725-9F6F-8E7EDF4DC539}" name="RRF@1.5%: " dataDxfId="10">
       <calculatedColumnFormula>I13+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A9036181-21C1-49D7-B9D6-15810840A100}" name="RRF@2%: " dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{A9036181-21C1-49D7-B9D6-15810840A100}" name="RRF@2%: " dataDxfId="9">
       <calculatedColumnFormula>J13+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AD6D521D-453B-4676-9C3B-53C23FECE6B4}" name="RRF@2.8%: " dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{AD6D521D-453B-4676-9C3B-53C23FECE6B4}" name="RRF@2.8%: " dataDxfId="8">
       <calculatedColumnFormula>K13+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -294,17 +305,17 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{02E425F0-E419-420F-8F15-658D17E30C7E}" name="LR simulation"/>
-    <tableColumn id="2" xr3:uid="{C2460A09-2B96-4890-8441-A0D4B14594FA}" name="RRF@1%: " dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{02E425F0-E419-420F-8F15-658D17E30C7E}" name="LR + SBERT combined with:"/>
+    <tableColumn id="2" xr3:uid="{C2460A09-2B96-4890-8441-A0D4B14594FA}" name="RRF@1%: " dataDxfId="7">
       <calculatedColumnFormula>N13+45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FD9A71CF-C85F-4EC2-961A-1DFB2DFD5394}" name="RRF@1.5%: " dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{FD9A71CF-C85F-4EC2-961A-1DFB2DFD5394}" name="RRF@1.5%: " dataDxfId="6">
       <calculatedColumnFormula>O13+45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF92DFAE-5F7D-422F-98DC-336E5DC121E1}" name="RRF@2%: " dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{EF92DFAE-5F7D-422F-98DC-336E5DC121E1}" name="RRF@2%: " dataDxfId="5">
       <calculatedColumnFormula>P13+45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{62D9EF39-D2E0-4D68-A5C2-17B702302DFF}" name="RRF@2.8%: " dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{62D9EF39-D2E0-4D68-A5C2-17B702302DFF}" name="RRF@2.8%: " dataDxfId="4">
       <calculatedColumnFormula>Q13+45</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -609,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B7F897-B56A-4ED6-9EDE-B32336D00DEA}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L22" sqref="L13:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,13 +632,13 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -637,7 +648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -649,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -664,10 +675,10 @@
         <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
@@ -679,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -702,93 +713,93 @@
         <v>12</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:K2" si="0">H13+40</f>
+        <f>H13+40</f>
         <v>44</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" si="0"/>
+        <f>I13+40</f>
         <v>45</v>
       </c>
       <c r="J2" s="1">
+        <f>J13+40</f>
+        <v>48</v>
+      </c>
+      <c r="K2" s="1">
+        <f>K13+40</f>
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:Q2" si="0">N13+45</f>
+        <v>46</v>
+      </c>
+      <c r="O2" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K2" s="1">
+      <c r="P2" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:Q11" si="1">N13+45</f>
-        <v>46</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="Q2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>47</v>
       </c>
-      <c r="C3" s="11">
-        <v>49</v>
-      </c>
-      <c r="D3" s="11">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="14">
+        <v>49</v>
+      </c>
+      <c r="D3" s="14">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14">
         <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:K3" si="2">H14+40</f>
+        <f>H14+40</f>
         <v>48</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="2"/>
+        <f>I14+40</f>
         <v>50</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="2"/>
+        <f>J14+40</f>
         <v>50</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="2"/>
+        <f>K14+40</f>
         <v>52</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11">
-        <f t="shared" ref="N3:Q3" si="3">N14+45</f>
+      <c r="N3" s="14">
+        <f t="shared" ref="N3:Q3" si="1">N14+45</f>
         <v>47</v>
       </c>
-      <c r="O3" s="11">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="P3" s="11">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="Q3" s="11">
-        <f t="shared" si="3"/>
+      <c r="O3" s="14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q3" s="14">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -812,93 +823,93 @@
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:K4" si="4">H15+40</f>
+        <f>H15+40</f>
         <v>45</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="4"/>
+        <f>I15+40</f>
         <v>48</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="4"/>
+        <f>J15+40</f>
         <v>51</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="4"/>
+        <f>K15+40</f>
         <v>53</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:Q4" si="5">N15+45</f>
+        <f t="shared" ref="N4:Q4" si="2">N15+45</f>
         <v>47</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>42</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>45</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>47</v>
       </c>
-      <c r="E5" s="11">
-        <v>49</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="12">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="11">
-        <f t="shared" ref="H5:K5" si="6">H16+40</f>
+      <c r="H5" s="12">
+        <f>H16+40</f>
         <v>42</v>
       </c>
-      <c r="I5" s="11">
-        <f t="shared" si="6"/>
+      <c r="I5" s="12">
+        <f>I16+40</f>
         <v>45</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <f>J16+40</f>
         <v>47</v>
       </c>
-      <c r="K5" s="11">
-        <f t="shared" si="6"/>
+      <c r="K5" s="12">
+        <f>K16+40</f>
         <v>49</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:Q5" si="7">N16+45</f>
+        <f t="shared" ref="N5:Q5" si="3">N16+45</f>
         <v>48</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -922,38 +933,38 @@
         <v>8</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:K6" si="8">H17+40</f>
+        <f>H17+40</f>
         <v>42</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f>I17+40</f>
         <v>49</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="8"/>
+        <f>J17+40</f>
         <v>49</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="8"/>
+        <f>K17+40</f>
         <v>50</v>
       </c>
       <c r="M6" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:Q6" si="9">N17+45</f>
+        <f t="shared" ref="N6:Q6" si="4">N17+45</f>
         <v>46</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -977,31 +988,31 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>15</v>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1024,38 +1035,38 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:K8" si="10">H19+40</f>
+        <f>H19+40</f>
         <v>42</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="10"/>
+        <f>I19+40</f>
         <v>48</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="10"/>
+        <f>J19+40</f>
         <v>50</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="10"/>
+        <f>K19+40</f>
         <v>51</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8:Q8" si="11">N19+45</f>
+        <f t="shared" ref="N8:Q8" si="5">N19+45</f>
         <v>47</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -1079,38 +1090,38 @@
         <v>5</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:K9" si="12">H20+40</f>
+        <f>H20+40</f>
         <v>45</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="12"/>
+        <f>I20+40</f>
         <v>46</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="12"/>
+        <f>J20+40</f>
         <v>50</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="12"/>
+        <f>K20+40</f>
         <v>50</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:Q9" si="13">N20+45</f>
+        <f t="shared" ref="N9:Q9" si="6">N20+45</f>
         <v>47</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -1134,38 +1145,38 @@
         <v>4</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:K10" si="14">H21+40</f>
+        <f>H21+40</f>
         <v>41</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="14"/>
+        <f>I21+40</f>
         <v>45</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="14"/>
+        <f>J21+40</f>
         <v>46</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="14"/>
+        <f>K21+40</f>
         <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10:Q10" si="15">N21+45</f>
+        <f t="shared" ref="N10:Q10" si="7">N21+45</f>
         <v>48</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
     </row>
@@ -1189,38 +1200,38 @@
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:K11" si="16">H22+40</f>
+        <f>H22+40</f>
         <v>44</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="16"/>
+        <f>I22+40</f>
         <v>48</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="16"/>
+        <f>J22+40</f>
         <v>49</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="16"/>
+        <f>K22+40</f>
         <v>50</v>
       </c>
       <c r="M11" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:Q11" si="17">N22+45</f>
+        <f t="shared" ref="N11:Q11" si="8">N22+45</f>
         <v>47</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -1251,22 +1262,6 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>46376*1%</f>
-        <v>463.76</v>
-      </c>
-      <c r="C14">
-        <f>46376*1.5%</f>
-        <v>695.64</v>
-      </c>
-      <c r="D14">
-        <f>46376*2%</f>
-        <v>927.52</v>
-      </c>
-      <c r="E14">
-        <f>46376*3%</f>
-        <v>1391.28</v>
-      </c>
       <c r="H14" s="4">
         <v>8</v>
       </c>
@@ -1372,28 +1367,28 @@
     </row>
     <row r="18" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="8:17" x14ac:dyDescent="0.25">
@@ -1502,6 +1497,24 @@
     </row>
     <row r="25" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H25" s="8"/>
+    </row>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>46376*1%</f>
+        <v>463.76</v>
+      </c>
+      <c r="I28">
+        <f>46376*1.5%</f>
+        <v>695.64</v>
+      </c>
+      <c r="J28">
+        <f>46376*2%</f>
+        <v>927.52</v>
+      </c>
+      <c r="K28">
+        <f>46376*3%</f>
+        <v>1391.28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/switching RRF values.xlsx
+++ b/results/switching RRF values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/j_j_teijema_uu_nl/Documents/Research/Mega-Meta paper simulations/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/j_j_teijema_uu_nl/Documents/Research/mega-meta/Mega-Meta paper simulations/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{AADB0CFB-CE38-43F0-A562-0F6D5F43F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481A957A-2456-47DF-968D-9E8E36E71C81}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{AADB0CFB-CE38-43F0-A562-0F6D5F43F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66D846A-14AE-4394-887D-163FB7DC974F}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A2E7B23F-9B7A-4A47-8B2D-BFDD78A65E8F}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{A2E7B23F-9B7A-4A47-8B2D-BFDD78A65E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t xml:space="preserve">RRF@1%: </t>
   </si>
@@ -258,10 +258,10 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FE56E4C0-AA1C-451A-9935-20920CC52481}" name="Study 3 simulations"/>
-    <tableColumn id="2" xr3:uid="{EC595787-08FA-4B1E-AD27-8B9CBBF9329A}" name="RRF@1%: " dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F264BE75-8D5F-4A6A-9090-26918BDA6451}" name="RRF@1.5%: " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{7B880219-5ED2-4ECD-B498-F904F64D4429}" name="RRF@2%: " dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{2EADC0EB-FDB5-4759-B1AC-4F1960F86893}" name="RRF@2.8%: " dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EC595787-08FA-4B1E-AD27-8B9CBBF9329A}" name="RRF@1%: " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F264BE75-8D5F-4A6A-9090-26918BDA6451}" name="RRF@1.5%: " dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7B880219-5ED2-4ECD-B498-F904F64D4429}" name="RRF@2%: " dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{2EADC0EB-FDB5-4759-B1AC-4F1960F86893}" name="RRF@2.8%: " dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -278,16 +278,16 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5B6FB3BC-03B8-4FB8-A439-F5C604C17A8F}" name="NB + TF-IDF combined with:"/>
-    <tableColumn id="2" xr3:uid="{58B3F117-2153-4C61-8B4A-F3B831F29A00}" name="RRF@1%: " dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{58B3F117-2153-4C61-8B4A-F3B831F29A00}" name="RRF@1%: " dataDxfId="7">
       <calculatedColumnFormula>H13+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{46C48341-5C0B-4725-9F6F-8E7EDF4DC539}" name="RRF@1.5%: " dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{46C48341-5C0B-4725-9F6F-8E7EDF4DC539}" name="RRF@1.5%: " dataDxfId="6">
       <calculatedColumnFormula>I13+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A9036181-21C1-49D7-B9D6-15810840A100}" name="RRF@2%: " dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{A9036181-21C1-49D7-B9D6-15810840A100}" name="RRF@2%: " dataDxfId="5">
       <calculatedColumnFormula>J13+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AD6D521D-453B-4676-9C3B-53C23FECE6B4}" name="RRF@2.8%: " dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{AD6D521D-453B-4676-9C3B-53C23FECE6B4}" name="RRF@2.8%: " dataDxfId="4">
       <calculatedColumnFormula>K13+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -306,16 +306,16 @@
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{02E425F0-E419-420F-8F15-658D17E30C7E}" name="LR + SBERT combined with:"/>
-    <tableColumn id="2" xr3:uid="{C2460A09-2B96-4890-8441-A0D4B14594FA}" name="RRF@1%: " dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{C2460A09-2B96-4890-8441-A0D4B14594FA}" name="RRF@1%: " dataDxfId="3">
       <calculatedColumnFormula>N13+45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FD9A71CF-C85F-4EC2-961A-1DFB2DFD5394}" name="RRF@1.5%: " dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{FD9A71CF-C85F-4EC2-961A-1DFB2DFD5394}" name="RRF@1.5%: " dataDxfId="2">
       <calculatedColumnFormula>O13+45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF92DFAE-5F7D-422F-98DC-336E5DC121E1}" name="RRF@2%: " dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{EF92DFAE-5F7D-422F-98DC-336E5DC121E1}" name="RRF@2%: " dataDxfId="1">
       <calculatedColumnFormula>P13+45</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{62D9EF39-D2E0-4D68-A5C2-17B702302DFF}" name="RRF@2.8%: " dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{62D9EF39-D2E0-4D68-A5C2-17B702302DFF}" name="RRF@2.8%: " dataDxfId="0">
       <calculatedColumnFormula>Q13+45</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B7F897-B56A-4ED6-9EDE-B32336D00DEA}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L13:L22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,38 +713,38 @@
         <v>12</v>
       </c>
       <c r="H2" s="1">
-        <f>H13+40</f>
+        <f t="shared" ref="H2:K6" si="0">H13+40</f>
         <v>44</v>
       </c>
       <c r="I2" s="1">
-        <f>I13+40</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="J2" s="1">
-        <f>J13+40</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K2" s="1">
-        <f>K13+40</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:Q2" si="0">N13+45</f>
+        <f t="shared" ref="N2:Q2" si="1">N13+45</f>
         <v>46</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -768,38 +768,38 @@
         <v>11</v>
       </c>
       <c r="H3" s="1">
-        <f>H14+40</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="I3" s="1">
-        <f>I14+40</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J3" s="1">
-        <f>J14+40</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K3" s="1">
-        <f>K14+40</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="14">
-        <f t="shared" ref="N3:Q3" si="1">N14+45</f>
+        <f t="shared" ref="N3:Q3" si="2">N14+45</f>
         <v>47</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="P3" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="Q3" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
@@ -823,38 +823,38 @@
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <f>H15+40</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="I4" s="1">
-        <f>I15+40</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="J4" s="1">
-        <f>J15+40</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="K4" s="1">
-        <f>K15+40</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:Q4" si="2">N15+45</f>
+        <f t="shared" ref="N4:Q4" si="3">N15+45</f>
         <v>47</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
@@ -878,38 +878,38 @@
         <v>9</v>
       </c>
       <c r="H5" s="12">
-        <f>H16+40</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I5" s="12">
-        <f>I16+40</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="J5" s="12">
-        <f>J16+40</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="K5" s="12">
-        <f>K16+40</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:Q5" si="3">N16+45</f>
+        <f t="shared" ref="N5:Q5" si="4">N16+45</f>
         <v>48</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
@@ -933,38 +933,38 @@
         <v>8</v>
       </c>
       <c r="H6" s="1">
-        <f>H17+40</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="I6" s="1">
-        <f>I17+40</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="J6" s="1">
-        <f>J17+40</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="K6" s="1">
-        <f>K17+40</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="M6" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:Q6" si="4">N17+45</f>
+        <f t="shared" ref="N6:Q6" si="5">N17+45</f>
         <v>46</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -987,32 +987,32 @@
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>13</v>
+      <c r="H7" s="1">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>52</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>13</v>
+      <c r="N7" s="10">
+        <v>48</v>
+      </c>
+      <c r="O7" s="10">
+        <v>48</v>
+      </c>
+      <c r="P7" s="10">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1035,38 +1035,38 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <f>H19+40</f>
+        <f t="shared" ref="H8:K11" si="6">H19+40</f>
         <v>42</v>
       </c>
       <c r="I8" s="1">
-        <f>I19+40</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="J8" s="1">
-        <f>J19+40</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K8" s="1">
-        <f>K19+40</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8:Q8" si="5">N19+45</f>
+        <f t="shared" ref="N8:Q8" si="7">N19+45</f>
         <v>47</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
     </row>
@@ -1090,38 +1090,38 @@
         <v>5</v>
       </c>
       <c r="H9" s="1">
-        <f>H20+40</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I9" s="1">
-        <f>I20+40</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="J9" s="1">
-        <f>J20+40</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K9" s="1">
-        <f>K20+40</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:Q9" si="6">N20+45</f>
+        <f t="shared" ref="N9:Q9" si="8">N20+45</f>
         <v>47</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
@@ -1145,38 +1145,38 @@
         <v>4</v>
       </c>
       <c r="H10" s="1">
-        <f>H21+40</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="I10" s="1">
-        <f>I21+40</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="J10" s="1">
-        <f>J21+40</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K10" s="1">
-        <f>K21+40</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10:Q10" si="7">N21+45</f>
+        <f t="shared" ref="N10:Q10" si="9">N21+45</f>
         <v>48</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
@@ -1200,38 +1200,38 @@
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <f>H22+40</f>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="I11" s="1">
-        <f>I22+40</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="J11" s="1">
-        <f>J22+40</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="K11" s="1">
-        <f>K22+40</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="M11" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:Q11" si="8">N22+45</f>
+        <f t="shared" ref="N11:Q11" si="10">N22+45</f>
         <v>47</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H17" s="4">
         <v>2</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H19" s="4">
         <v>2</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H20" s="4">
         <v>5</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H21" s="4">
         <v>1</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H22" s="7">
         <v>4</v>
       </c>
@@ -1495,10 +1495,90 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>SUM(B2:E2)</f>
+        <v>155</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM(H2:K2)</f>
+        <v>187</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM(N2:Q2)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:B32" si="11">SUM(B3:E3)</f>
+        <v>198</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C32" si="12">SUM(H3:K3)</f>
+        <v>200</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D32" si="13">SUM(N3:Q3)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f t="shared" si="11"/>
+        <v>196</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="12"/>
+        <v>197</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f t="shared" si="11"/>
+        <v>183</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f t="shared" si="11"/>
+        <v>188</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="12"/>
+        <v>201</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
       <c r="H28">
         <f>46376*1%</f>
         <v>463.76</v>
@@ -1515,6 +1595,80 @@
         <f>46376*3%</f>
         <v>1391.28</v>
       </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f t="shared" si="11"/>
+        <v>164</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
